--- a/src/test/resources/testdata/Registration.xlsx
+++ b/src/test/resources/testdata/Registration.xlsx
@@ -36,16 +36,16 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>venu</t>
-  </si>
-  <si>
-    <t>sonu</t>
-  </si>
-  <si>
-    <t>v12345</t>
-  </si>
-  <si>
-    <t>v21@gmail.com</t>
+    <t>Kollapudi</t>
+  </si>
+  <si>
+    <t>Venu</t>
+  </si>
+  <si>
+    <t>venukollapudi@gmail.com</t>
+  </si>
+  <si>
+    <t>Venu@12345</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,18 +410,20 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
